--- a/reopening_wa.xlsx
+++ b/reopening_wa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="washington_phases" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="142">
   <si>
     <t>001</t>
   </si>
@@ -442,13 +442,22 @@
   </si>
   <si>
     <t>not explicit but grouped in with manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% capacity </t>
+  </si>
+  <si>
+    <t>https://www.governor.wa.gov/sites/default/files/Memo%20SafeStart%20Changes%207.28.pdf</t>
+  </si>
+  <si>
+    <t>movie theaters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +470,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -480,10 +497,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,8 +511,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1554,7 +1577,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1571,7 +1594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1588,7 +1611,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -1605,7 +1628,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -1620,7 +1643,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -1637,7 +1660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1654,7 +1677,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>130</v>
       </c>
@@ -1671,7 +1694,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -1688,7 +1711,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -1705,9 +1728,74 @@
         <v>129</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="9">
+        <v>3</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="7">
+        <v>7225</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="9">
+        <v>3</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="7">
+        <v>71394</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="9">
+        <v>3</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="7">
+        <v>512131</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F60" r:id="rId1" display="https://www.governor.wa.gov/sites/default/files/Memo SafeStart Changes 7.28.pdf"/>
+    <hyperlink ref="F59" r:id="rId2" display="https://www.governor.wa.gov/sites/default/files/Memo SafeStart Changes 7.28.pdf"/>
+    <hyperlink ref="F58" r:id="rId3" display="https://www.governor.wa.gov/sites/default/files/Memo SafeStart Changes 7.28.pdf"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1715,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/reopening_wa.xlsx
+++ b/reopening_wa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="washington_phases" sheetId="2" r:id="rId1"/>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1876,6 +1876,9 @@
       <c r="C4" s="2">
         <v>44015</v>
       </c>
+      <c r="D4" s="2">
+        <v>44117</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
@@ -1889,6 +1892,9 @@
       <c r="C5" s="2">
         <v>43993</v>
       </c>
+      <c r="D5" s="2">
+        <v>44117</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1959,6 +1965,9 @@
       <c r="C10" s="2">
         <v>43993</v>
       </c>
+      <c r="D10" s="2">
+        <v>44117</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -1987,6 +1996,9 @@
       <c r="C12" s="2">
         <v>44015</v>
       </c>
+      <c r="D12" s="2">
+        <v>44117</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -2421,6 +2433,9 @@
       </c>
       <c r="C40" s="2">
         <v>44015</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44117</v>
       </c>
     </row>
   </sheetData>
